--- a/excels/Southampton.xlsx
+++ b/excels/Southampton.xlsx
@@ -2791,7 +2791,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>2150.864778294224</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>2139.277619491743</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2139.277619491743</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>2139.277619491743</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2989.612302514498</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>2989.612302514498</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>2161.812318053431</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>2761.137027204211</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2925.969754564393</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2042.314197069415</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>2078.058704667282</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2536.374584395882</v>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>2198.776705938042</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>2092.086640710965</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>2092.086640710965</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>2590.875823405125</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>2590.875823405125</v>
@@ -3284,7 +3284,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>2590.875823405125</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1851.10588956661</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1851.10588956661</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>1851.10588956661</v>
@@ -3400,7 +3400,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>1851.10588956661</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>1851.10588956661</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>5364.106976185363</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>1899.391186285472</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>3012.473307073882</v>
@@ -3545,7 +3545,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2894.986574756637</v>
@@ -3574,7 +3574,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>2449.818880531769</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2449.818880531769</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>2894.986574756637</v>
@@ -3661,7 +3661,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>2894.986574756637</v>
@@ -3690,7 +3690,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>2894.986574756637</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>2449.818880531769</v>
@@ -3748,7 +3748,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>2894.986574756637</v>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>2894.986574756637</v>
@@ -3806,7 +3806,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>2491.076311839371</v>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>3890.247452297156</v>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1321.801938383237</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>2273.411715680204</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>2273.411715680204</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>2273.411715680204</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>2273.411715680204</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>2273.411715680204</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>2273.411715680204</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>2273.411715680204</v>
@@ -4096,7 +4096,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>2273.411715680204</v>
@@ -4125,7 +4125,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>2273.411715680204</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>2273.411715680204</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>2697.245639411214</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>2273.411715680204</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>2273.411715680204</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>2273.411715680204</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>2273.411715680204</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>2273.411715680204</v>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>2273.411715680204</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>2273.411715680204</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>4876.508112375348</v>
@@ -4444,7 +4444,7 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>2697.245639411214</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>2273.411715680204</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="1">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>2273.411715680204</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>2273.411715680204</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>2273.411715680204</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>2273.411715680204</v>
@@ -4618,7 +4618,7 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>2273.411715680204</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="1">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>2273.411715680204</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="1">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>2273.411715680204</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>3119.976176295414</v>
@@ -4734,7 +4734,7 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="1">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>3119.976176295414</v>
@@ -4763,7 +4763,7 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="1">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>3119.976176295414</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="1">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>3221.280091724052</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>3119.976176295414</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="1">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>3119.976176295414</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>4084.892646872162</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="1">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>3805.271153889029</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="1">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>4084.892646872162</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="1">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>1863.5172034636</v>
@@ -4995,7 +4995,7 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>4084.892646872162</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>3805.271153889029</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>3119.976176295414</v>
@@ -5082,7 +5082,7 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>4084.892646872162</v>
@@ -5111,7 +5111,7 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>1863.5172034636</v>
@@ -5140,7 +5140,7 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="1">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>4084.892646872162</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>3119.976176295414</v>
@@ -5198,7 +5198,7 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>3157.547438213419</v>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>3119.976176295414</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="1">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>3805.271153889029</v>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="1">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>3805.271153889029</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>4084.892646872162</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>4084.892646872162</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>3805.271153889029</v>
@@ -5401,7 +5401,7 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>4084.892646872162</v>
@@ -5430,7 +5430,7 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>4084.892646872162</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>1800.360975837625</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>4084.892646872162</v>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>3119.976176295414</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>4084.892646872162</v>
@@ -5575,7 +5575,7 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>3119.976176295414</v>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>3119.976176295414</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>4478.4034212402</v>
@@ -5662,7 +5662,7 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>1494.545454545455</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>2224.774270399047</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>1494.545454545455</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>4478.4034212402</v>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>4478.4034212402</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>3394.72558802566</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>4478.4034212402</v>
@@ -5865,7 +5865,7 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>4478.4034212402</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>4478.4034212402</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>4478.4034212402</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>2151.780821917809</v>
@@ -5981,7 +5981,7 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>4478.4034212402</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>5113.329362715903</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>4478.4034212402</v>
@@ -6068,7 +6068,7 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>2224.774270399047</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>3394.72558802566</v>
@@ -6126,7 +6126,7 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>4478.4034212402</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>4478.4034212402</v>
@@ -6184,7 +6184,7 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>2224.774270399047</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>4478.4034212402</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>2420.766590389016</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>1494.545454545455</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>4478.4034212402</v>
@@ -6329,7 +6329,7 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>4478.4034212402</v>
@@ -6358,7 +6358,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>4478.4034212402</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>4478.4034212402</v>
@@ -6416,7 +6416,7 @@
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>4478.4034212402</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>4478.4034212402</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>4478.4034212402</v>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>2224.774270399047</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>4478.4034212402</v>
@@ -6561,7 +6561,7 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>4478.4034212402</v>
@@ -6590,7 +6590,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>1494.545454545455</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>2467.860187553282</v>
@@ -6648,7 +6648,7 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>2467.860187553282</v>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>2224.774270399047</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>2467.860187553282</v>
@@ -6735,7 +6735,7 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>2224.774270399047</v>
@@ -6764,7 +6764,7 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>2151.780821917809</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>4490.223225095647</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>4490.223225095647</v>
@@ -6851,7 +6851,7 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>2273.411715680204</v>
@@ -6880,7 +6880,7 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>4876.508112375348</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>3780.298199863069</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>3157.547438213419</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>3805.271153889029</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>4416.029622551362</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>4416.029622551362</v>
